--- a/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st01.xlsx
+++ b/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st01.xlsx
@@ -2480,7 +2480,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="촌장"]  그렇습니다. 제가 바로 벨로니 마을 촌장입니다. 여러분께 길 안내를 해드리겠습니다. 여기에 서 계지시지 말고, 이쪽으로 오시죠.
+    <t xml:space="preserve">[name="촌장"]  그렇습니다. 제가 바로 벨로니 마을 촌장입니다. 여러분께 길 안내를 해드리겠습니다. 여기에 서 계시지 말고, 이쪽으로 오시죠.
 </t>
   </si>
   <si>
@@ -2620,7 +2620,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="수르트"]  …….(무언가를 기록하고 있다.)
+    <t xml:space="preserve">[name="수르트"]  ……(무언가를 기록하고 있다.)
 </t>
   </si>
   <si>
@@ -2636,7 +2636,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="메테오라이트"]  …...
+    <t xml:space="preserve">[name="메테오라이트"]  ………
 </t>
   </si>
   <si>
@@ -2644,7 +2644,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="메테오라이트"]  확실히 본 적 있기는 하지만, 단지.…..
+    <t xml:space="preserve">[name="메테오라이트"]  확실히 본 적 있기는 하지만, 단지……
 </t>
   </si>
   <si>
@@ -2700,7 +2700,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="수르트"]  …….그럴지도.
+    <t xml:space="preserve">[name="수르트"]  ……그럴지도.
 </t>
   </si>
   <si>
@@ -2752,7 +2752,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="메테오라이트"]  하지만, 무언가를 찾기 위헤 보이지 않는 앞을 향해 나아갈 땐, 주변의 사물에 대해서도 주의를 기울여야 해.
+    <t xml:space="preserve">[name="메테오라이트"]  하지만, 무언가를 찾기 위해 보이지 않는 앞을 향해 나아갈 땐, 주변의 사물에 대해서도 주의를 기울여야 해.
 </t>
   </si>
   <si>
@@ -2916,7 +2916,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="수르트"]  이건…….
+    <t xml:space="preserve">[name="수르트"]  이건……
 </t>
   </si>
   <si>
@@ -2984,7 +2984,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">바스락 바스락… 원석충의 소리이다.
+    <t xml:space="preserve">바스락 바스락… 원석충의 소리다.
 </t>
   </si>
   <si>
@@ -3116,7 +3116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="메테오라이트"]  어….. 그 말이 틀린건 아니긴 한데…….
+    <t xml:space="preserve">[name="메테오라이트"]  어…… 그 말이 틀린 건 아니긴 한데……
 </t>
   </si>
   <si>
@@ -3156,7 +3156,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="수르트"]  하지만…….
+    <t xml:space="preserve">[name="수르트"]  하지만……
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st01.xlsx
+++ b/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st01.xlsx
@@ -1880,7 +1880,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Meteorite"]  The “personal reasons” Dr. Kal'tsit mentioned are some places around here you remember?
+    <t xml:space="preserve">[name="Meteorite"]  The 'personal reasons' Dr. Kal'tsit mentioned are some places around here you remember?
 </t>
   </si>
   <si>
@@ -2256,7 +2256,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Surtr"]  I was doing a little thing called “investigating”.
+    <t xml:space="preserve">[name="Surtr"]  I was doing a little thing called 'investigating'.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st01.xlsx
+++ b/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st01.xlsx
@@ -1592,7 +1592,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">7:10 AM \ Clear
+    <t xml:space="preserve">7:10 A.M. \ Clear
 </t>
   </si>
   <si>
@@ -1612,7 +1612,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Meteorite"]  It’s a mining town that carries around its own Originium-powered drills to keep itself going. The people bring in some revenue just selling the excess resources to nearby cities.
+    <t xml:space="preserve">[name="Meteorite"]  It's a mining town that carries around its own Originium-powered drills to keep itself going. The people bring in some revenue just selling the excess resources to nearby cities.
 </t>
   </si>
   <si>
@@ -1628,11 +1628,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Surtr"]  I don’t see anything worth investigating. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Meteorite"]  Most of Terra isn’t very interesting, but the people living in these uninteresting places still have their own unique lifestyles.
+    <t xml:space="preserve">[name="Surtr"]  I don't see anything worth investigating. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Meteorite"]  Most of Terra isn't very interesting, but the people living in these uninteresting places still have their own unique lifestyles.
 </t>
   </si>
   <si>
@@ -1640,11 +1640,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mischievous Kid"]  What?! You said you’d share your ice cream!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Scrawny Kid"]  Stop running! You’re gonna squish it before we get home!
+    <t xml:space="preserve">[name="Mischievous Kid"]  What?! You said you'd share your ice cream!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scrawny Kid"]  Stop running! You're gonna squish it before we get home!
 </t>
   </si>
   <si>
@@ -1652,7 +1652,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mischievous Kid"]  No way! I’m faster than you anyway. I’ll be the one to bring it back to Dad!
+    <t xml:space="preserve">[name="Mischievous Kid"]  No way! I'm faster than you anyway. I'll be the one to bring it back to Dad!
 </t>
   </si>
   <si>
@@ -1660,7 +1660,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Meteorite"]  There are many who struggle to survive in such terrible environments, but that doesn’t mean they’re unhappy.
+    <t xml:space="preserve">[name="Meteorite"]  There are many who struggle to survive in such terrible environments, but that doesn't mean they're unhappy.
 </t>
   </si>
   <si>
@@ -1680,7 +1680,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Meteorite"]  (She’s totally angry. )
+    <t xml:space="preserve">[name="Meteorite"]  (She's totally angry. )
 </t>
   </si>
   <si>
@@ -1696,7 +1696,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Village Headman"]  Ah, yeah, that’s right. I’m the leader of Bellony Village. Come with me. No need to stand around out here, let’s go in. This way.
+    <t xml:space="preserve">[name="Village Headman"]  Ah, yeah, that's right. I'm the leader of Bellony Village. Come with me. No need to stand around out here, let's go in. This way.
 </t>
   </si>
   <si>
@@ -1716,7 +1716,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]   Not only were the mines ruined, the village’s travel route and trading channels were also blocked.
+    <t xml:space="preserve">[name="Kal'tsit"]   Not only were the mines ruined, the village's travel route and trading channels were also blocked.
 </t>
   </si>
   <si>
@@ -1732,11 +1732,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Meteorite"]  Understood. This doesn’t sound like a particularly tough mission.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]   The village’s problems don’t appear to be related to Catastrophes or Oripathy, but don’t let your guard down.
+    <t xml:space="preserve">[name="Meteorite"]  Understood. This doesn't sound like a particularly tough mission.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]   The village's problems don't appear to be related to Catastrophes or Oripathy, but don't let your guard down.
 </t>
   </si>
   <si>
@@ -1748,7 +1748,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Meteorite"]  Is Surtr going too? I don’t think I’ll need much help.
+    <t xml:space="preserve">[name="Meteorite"]  Is Surtr going too? I don't think I'll need much help.
 </t>
   </si>
   <si>
@@ -1756,11 +1756,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Surtr asked to go along for personal reasons. We’ve approved her request.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Surtr"]  I won’t be a burden to you, just pay me no mind.
+    <t xml:space="preserve">[name="Kal'tsit"]  Surtr asked to go along for personal reasons. We've approved her request.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Surtr"]  I won't be a burden to you, just pay me no mind.
 </t>
   </si>
   <si>
@@ -1768,7 +1768,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Village Headman"]  We’re a small village. Just wait here for a moment, I’ll go and grab some tools first.
+    <t xml:space="preserve">[name="Village Headman"]  We're a small village. Just wait here for a moment, I'll go and grab some tools first.
 </t>
   </si>
   <si>
@@ -1780,7 +1780,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Village Headman"]  Without these unlocking tools, it can’t be opened. Our village is pretty good at excavation, if I do say so myself.
+    <t xml:space="preserve">[name="Village Headman"]  Without these unlocking tools, it can't be opened. Our village is pretty good at excavation, if I do say so myself.
 </t>
   </si>
   <si>
@@ -1788,27 +1788,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Village Headman"]  Hahaha, that’s true.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Meteorite"]  Aah! Please forgive her, she doesn’t mean it. Hey, don’t be rude!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Village Headman"]  No, we are really ashamed that for all our experience excavating, we still couldn’t stop a major cave-in.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Village Headman"]  Part of the drill sunk into the collapsed area, so it’s not safe to send anyone else over there.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Village Headman"]  Even with Rhodes Island’s help, we’re going to put some new precautions in place.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Village Headman"]  Just rest here a minute, I’ll get the stuff.
+    <t xml:space="preserve">[name="Village Headman"]  Hahaha, that's true.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Meteorite"]  Aah! Please forgive her, she doesn't mean it. Hey, don't be rude!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Village Headman"]  No, we are really ashamed that for all our experience excavating, we still couldn't stop a major cave-in.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Village Headman"]  Part of the drill sunk into the collapsed area, so it's not safe to send anyone else over there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Village Headman"]  Even with Rhodes Island's help, we're going to put some new precautions in place.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Village Headman"]  Just rest here a minute, I'll get the stuff.
 </t>
   </si>
   <si>
@@ -1820,7 +1820,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Surtr"]  I’m just stating facts.
+    <t xml:space="preserve">[name="Surtr"]  I'm just stating facts.
 </t>
   </si>
   <si>
@@ -1832,7 +1832,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Meteorite"]  (I’ve heard Surtr is tough to get along with, but I thought we’d at least have something to talk about. )
+    <t xml:space="preserve">[name="Meteorite"]  (I've heard Surtr is tough to get along with, but I thought we'd at least have something to talk about. )
 </t>
   </si>
   <si>
@@ -1856,7 +1856,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Surtr"]  You don’t know? I thought my file was public.
+    <t xml:space="preserve">[name="Surtr"]  You don't know? I thought my file was public.
 </t>
   </si>
   <si>
@@ -1892,7 +1892,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Meteorite"]  Now that you’re here at the village, do you recall anything?
+    <t xml:space="preserve">[name="Meteorite"]  Now that you're here at the village, do you recall anything?
 </t>
   </si>
   <si>
@@ -1908,11 +1908,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Surtr"]  At a quick glance, I haven’t missed anything.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Meteorite"]  How about we ask the villagers later? Maybe the village you remember is from a while ago?  It could’ve been rebuilt.
+    <t xml:space="preserve">[name="Surtr"]  At a quick glance, I haven't missed anything.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Meteorite"]  How about we ask the villagers later? Maybe the village you remember is from a while ago?  It could've been rebuilt.
 </t>
   </si>
   <si>
@@ -1940,7 +1940,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Meteorite"]  We’ll look for clues in the village together after we’re done with the mine collapse thing.
+    <t xml:space="preserve">[name="Meteorite"]  We'll look for clues in the village together after we're done with the mine collapse thing.
 </t>
   </si>
   <si>
@@ -1952,7 +1952,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Meteorite"]  As Sarkaz, without a Sarkaz home, I’m always fighting, together with the others, pressing on.
+    <t xml:space="preserve">[name="Meteorite"]  As Sarkaz, without a Sarkaz home, I'm always fighting, together with the others, pressing on.
 </t>
   </si>
   <si>
@@ -1960,31 +1960,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Meteorite"]  Maybe it’s different, maybe it’s the same?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Meteorite"]  Maybe we’re all just looking for a place to belong in the end.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Meteorite"]  But, as you look towards the unknown future, you can’t ignore what’s right beside you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Meteorite"]  That’s what Amiya taught me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Village Headman"]  Sorry for the wait, let’s set out now!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Village Headman"]  I’m all ready!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Meteorite"]  Anyway, let’s complete our mission first.
+    <t xml:space="preserve">[name="Meteorite"]  Maybe it's different, maybe it's the same?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Meteorite"]  Maybe we're all just looking for a place to belong in the end.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Meteorite"]  But, as you look towards the unknown future, you can't ignore what's right beside you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Meteorite"]  That's what Amiya taught me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Village Headman"]  Sorry for the wait, let's set out now!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Village Headman"]  I'm all ready!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Meteorite"]  Anyway, let's complete our mission first.
 </t>
   </si>
   <si>
@@ -2000,7 +2000,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Village Headman"]  This cave used to be the entrance to a tunnel that connects to the neighboring village. Now that it’s sealed, we can’t trade with our neighbors.
+    <t xml:space="preserve">[name="Village Headman"]  This cave used to be the entrance to a tunnel that connects to the neighboring village. Now that it's sealed, we can't trade with our neighbors.
 </t>
   </si>
   <si>
@@ -2016,11 +2016,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Meteorite"]  Sir, what’s the relationship between this village and the neighboring one?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Village Headman"]   It’s a mining village just like ours. Since the nearby villages are all in the same business, we deal with each other a lot.
+    <t xml:space="preserve">[name="Meteorite"]  Sir, what's the relationship between this village and the neighboring one?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Village Headman"]   It's a mining village just like ours. Since the nearby villages are all in the same business, we deal with each other a lot.
 </t>
   </si>
   <si>
@@ -2028,7 +2028,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Village Headman"]   But the cave-in blocked off our only means of communication. They’ve probably already moved on to keep mining.
+    <t xml:space="preserve">[name="Village Headman"]   But the cave-in blocked off our only means of communication. They've probably already moved on to keep mining.
 </t>
   </si>
   <si>
@@ -2036,7 +2036,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">It’s getting more familiar.
+    <t xml:space="preserve">It's getting more familiar.
 </t>
   </si>
   <si>
@@ -2060,7 +2060,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Surtr"]  I’m not willing to wait that long.
+    <t xml:space="preserve">[name="Surtr"]  I'm not willing to wait that long.
 </t>
   </si>
   <si>
@@ -2076,7 +2076,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Meteorite"]  Surtr, wait! I know you’re eager for answers, but the mine isn’t safe right now!
+    <t xml:space="preserve">[name="Meteorite"]  Surtr, wait! I know you're eager for answers, but the mine isn't safe right now!
 </t>
   </si>
   <si>
@@ -2096,11 +2096,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Village Headman"]  Stop! Don’t you go in there too!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Village Headman"]  You’re risking another cave-in!
+    <t xml:space="preserve">[name="Village Headman"]  Stop! Don't you go in there too!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Village Headman"]  You're risking another cave-in!
 </t>
   </si>
   <si>
@@ -2120,7 +2120,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Surtr"]  It’s just an Originium Slug nest now.
+    <t xml:space="preserve">[name="Surtr"]  It's just an Originium Slug nest now.
 </t>
   </si>
   <si>
@@ -2180,7 +2180,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Surtr"]  Ah, I’m hurt. Ouch. My palm’s scratched.
+    <t xml:space="preserve">[name="Surtr"]  Ah, I'm hurt. Ouch. My palm's scratched.
 </t>
   </si>
   <si>
@@ -2196,11 +2196,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Surtr"]  There’s another empty space beneath the mining pit?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Rustle rustle). It’s the sound of Originium Slugs.
+    <t xml:space="preserve">[name="Surtr"]  There's another empty space beneath the mining pit?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Rustle rustle). It's the sound of Originium Slugs.
 </t>
   </si>
   <si>
@@ -2280,7 +2280,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Meteorite"]  So, you solved the whole problem by yourself, but you didn’t find the path to the neighboring village?
+    <t xml:space="preserve">[name="Meteorite"]  So, you solved the whole problem by yourself, but you didn't find the path to the neighboring village?
 </t>
   </si>
   <si>
@@ -2288,11 +2288,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Surtr"]  I made a mistake. There aren’t any memories I’m looking for here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Meteorite"]  You’d mess up something you recorded so diligently all this while?
+    <t xml:space="preserve">[name="Surtr"]  I made a mistake. There aren't any memories I'm looking for here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Meteorite"]  You'd mess up something you recorded so diligently all this while?
 </t>
   </si>
   <si>
@@ -2300,7 +2300,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Meteorite"]  I’ve seen something like this before.
+    <t xml:space="preserve">[name="Meteorite"]  I've seen something like this before.
 </t>
   </si>
   <si>
@@ -2308,19 +2308,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Meteorite"]  It’s thanks to the people beside me that I’ve made it this far.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Surtr"]  I’m used to it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Surtr"]  After all, this isn’t the first time there was a discrepancy in the places I remember.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Meteorite"]  But even if you didn’t find the right place today, you still have a place to call home, right?
+    <t xml:space="preserve">[name="Meteorite"]  It's thanks to the people beside me that I've made it this far.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Surtr"]  I'm used to it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Surtr"]  After all, this isn't the first time there was a discrepancy in the places I remember.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Meteorite"]  But even if you didn't find the right place today, you still have a place to call home, right?
 </t>
   </si>
   <si>
@@ -2332,11 +2332,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Village Headman"]  Ladies! I’ve notified the others in the village!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Village Headman"]  The exploration team is getting ready! It sounds like you’ve taken care of things and we can get back to mining.
+    <t xml:space="preserve">[name="Village Headman"]  Ladies! I've notified the others in the village!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Village Headman"]  The exploration team is getting ready! It sounds like you've taken care of things and we can get back to mining.
 </t>
   </si>
   <si>
@@ -2344,19 +2344,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Meteorite"]  We wouldn’t want any more accidents.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Village Headman"]  Hahaha, that’s fine. Everyone’s too excited. I really have to thank you both.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Village Headman"]  If you don’t mind, why don’t you spend the night in the village?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Village Headman"]  You’ll be our guests of honor!
+    <t xml:space="preserve">[name="Meteorite"]  We wouldn't want any more accidents.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Village Headman"]  Hahaha, that's fine. Everyone's too excited. I really have to thank you both.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Village Headman"]  If you don't mind, why don't you spend the night in the village?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Village Headman"]  You'll be our guests of honor!
 </t>
   </si>
   <si>
@@ -2364,7 +2364,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Surtr"]  We have to hurry back, so I’m afraid we’ll pass.
+    <t xml:space="preserve">[name="Surtr"]  We have to hurry back, so I'm afraid we'll pass.
 </t>
   </si>
   <si>
